--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N2">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q2">
-        <v>13.39693806162756</v>
+        <v>19.55554205511733</v>
       </c>
       <c r="R2">
-        <v>120.572442554648</v>
+        <v>175.999878496056</v>
       </c>
       <c r="S2">
-        <v>0.002480964229982566</v>
+        <v>0.002696614644080518</v>
       </c>
       <c r="T2">
-        <v>0.002480964229982566</v>
+        <v>0.002696614644080518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q3">
-        <v>110.9316258652607</v>
+        <v>283.2215020088773</v>
       </c>
       <c r="R3">
-        <v>998.384632787346</v>
+        <v>2548.993518079896</v>
       </c>
       <c r="S3">
-        <v>0.02054330582700963</v>
+        <v>0.03905487496501082</v>
       </c>
       <c r="T3">
-        <v>0.02054330582700964</v>
+        <v>0.03905487496501083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N4">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O4">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P4">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q4">
-        <v>769.9425393954917</v>
+        <v>2149.854719359285</v>
       </c>
       <c r="R4">
-        <v>6929.482854559426</v>
+        <v>19348.69247423357</v>
       </c>
       <c r="S4">
-        <v>0.1425848123351026</v>
+        <v>0.2964545652853843</v>
       </c>
       <c r="T4">
-        <v>0.1425848123351026</v>
+        <v>0.2964545652853843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N5">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O5">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P5">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q5">
-        <v>23.10630136013889</v>
+        <v>16.19495036810756</v>
       </c>
       <c r="R5">
-        <v>207.95671224125</v>
+        <v>145.754553312968</v>
       </c>
       <c r="S5">
-        <v>0.00427903054399415</v>
+        <v>0.00223320530822964</v>
       </c>
       <c r="T5">
-        <v>0.00427903054399415</v>
+        <v>0.002233205308229641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N6">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q6">
-        <v>35.137377996532</v>
+        <v>20.089208043579</v>
       </c>
       <c r="R6">
-        <v>316.236401968788</v>
+        <v>180.802872392211</v>
       </c>
       <c r="S6">
-        <v>0.006507052398373318</v>
+        <v>0.002770204602133194</v>
       </c>
       <c r="T6">
-        <v>0.006507052398373317</v>
+        <v>0.002770204602133194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q7">
         <v>290.950547943639</v>
@@ -883,10 +883,10 @@
         <v>2618.554931492751</v>
       </c>
       <c r="S7">
-        <v>0.05388081207970457</v>
+        <v>0.04012067300802622</v>
       </c>
       <c r="T7">
-        <v>0.05388081207970457</v>
+        <v>0.04012067300802622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N8">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O8">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P8">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q8">
-        <v>2019.398904279359</v>
+        <v>2208.523731991212</v>
       </c>
       <c r="R8">
-        <v>18174.59013851423</v>
+        <v>19876.71358792091</v>
       </c>
       <c r="S8">
-        <v>0.3739702627970812</v>
+        <v>0.3045447382998213</v>
       </c>
       <c r="T8">
-        <v>0.3739702627970812</v>
+        <v>0.3045447382998213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N9">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O9">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P9">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q9">
-        <v>60.603015499375</v>
+        <v>16.636906626437</v>
       </c>
       <c r="R9">
-        <v>545.427139494375</v>
+        <v>149.732159637933</v>
       </c>
       <c r="S9">
-        <v>0.01122300580859462</v>
+        <v>0.002294148938168159</v>
       </c>
       <c r="T9">
-        <v>0.01122300580859462</v>
+        <v>0.002294148938168159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N10">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q10">
-        <v>30.30943283055955</v>
+        <v>17.761613246315</v>
       </c>
       <c r="R10">
-        <v>272.784895475036</v>
+        <v>159.854519216835</v>
       </c>
       <c r="S10">
-        <v>0.005612970541310547</v>
+        <v>0.002449240539971325</v>
       </c>
       <c r="T10">
-        <v>0.005612970541310546</v>
+        <v>0.002449240539971325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q11">
-        <v>250.9733677561996</v>
+        <v>257.240160745415</v>
       </c>
       <c r="R11">
-        <v>2258.760309805797</v>
+        <v>2315.161446708735</v>
       </c>
       <c r="S11">
-        <v>0.04647748203485733</v>
+        <v>0.03547217369667283</v>
       </c>
       <c r="T11">
-        <v>0.04647748203485733</v>
+        <v>0.03547217369667283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N12">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O12">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P12">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q12">
-        <v>1741.92950462615</v>
+        <v>1952.63766933182</v>
       </c>
       <c r="R12">
-        <v>15677.36554163536</v>
+        <v>17573.73902398638</v>
       </c>
       <c r="S12">
-        <v>0.3225860097470439</v>
+        <v>0.2692592881783886</v>
       </c>
       <c r="T12">
-        <v>0.3225860097470439</v>
+        <v>0.2692592881783887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N13">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O13">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P13">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q13">
-        <v>52.27604142201388</v>
+        <v>14.70930563677833</v>
       </c>
       <c r="R13">
-        <v>470.4843727981249</v>
+        <v>132.383750731005</v>
       </c>
       <c r="S13">
-        <v>0.009680942634540113</v>
+        <v>0.002028342086994866</v>
       </c>
       <c r="T13">
-        <v>0.009680942634540113</v>
+        <v>0.002028342086994866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N14">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q14">
-        <v>0.01366985644888889</v>
+        <v>0.03572498367766667</v>
       </c>
       <c r="R14">
-        <v>0.12302870804</v>
+        <v>0.321524853099</v>
       </c>
       <c r="S14">
-        <v>2.531505686051494E-06</v>
+        <v>4.92630241970326E-06</v>
       </c>
       <c r="T14">
-        <v>2.531505686051494E-06</v>
+        <v>4.926302419703261E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.061059</v>
       </c>
       <c r="O15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q15">
-        <v>0.1131914915366667</v>
+        <v>0.5174023562176666</v>
       </c>
       <c r="R15">
-        <v>1.01872342383</v>
+        <v>4.656621205959</v>
       </c>
       <c r="S15">
-        <v>2.096180786602277E-05</v>
+        <v>7.134728184602871E-05</v>
       </c>
       <c r="T15">
-        <v>2.096180786602277E-05</v>
+        <v>7.134728184602873E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N16">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O16">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P16">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q16">
-        <v>0.7856275769144444</v>
+        <v>3.927455681974666</v>
       </c>
       <c r="R16">
-        <v>7.07064819223</v>
+        <v>35.347101137772</v>
       </c>
       <c r="S16">
-        <v>0.0001454895071878702</v>
+        <v>0.0005415771383958487</v>
       </c>
       <c r="T16">
-        <v>0.0001454895071878702</v>
+        <v>0.0005415771383958488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N17">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O17">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P17">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q17">
-        <v>0.02357701597222222</v>
+        <v>0.02958569677744444</v>
       </c>
       <c r="R17">
-        <v>0.21219314375</v>
+        <v>0.266271270997</v>
       </c>
       <c r="S17">
-        <v>4.366201665465095E-06</v>
+        <v>4.079724456653716E-06</v>
       </c>
       <c r="T17">
-        <v>4.366201665465095E-06</v>
+        <v>4.079724456653717E-06</v>
       </c>
     </row>
   </sheetData>
